--- a/表1.xlsx
+++ b/表1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shibu\Desktop\HI-kiyo_yomei-shimadu-paper\submission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1BB6A7-7307-41EA-90E3-98702FB41F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2782C8-3090-48D0-AAE6-A42905F75239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31620" yWindow="2580" windowWidth="14850" windowHeight="12825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31200" yWindow="2400" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table1" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="68">
   <si>
     <t>年月日（和暦）</t>
     <rPh sb="0" eb="1">
@@ -583,6 +583,10 @@
     <rPh sb="6" eb="7">
       <t>コ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>近衛稙家消息</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1035,10 +1039,10 @@
   <dimension ref="A1:J115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E61" sqref="E61"/>
+      <selection pane="bottomRight" activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5546875" defaultRowHeight="16.2" x14ac:dyDescent="0.25"/>
@@ -2499,7 +2503,7 @@
         <v>3165</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7" t="s">

--- a/表1.xlsx
+++ b/表1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shibu\Desktop\HI-kiyo_yomei-shimadu-paper\submission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2782C8-3090-48D0-AAE6-A42905F75239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913084F2-81D1-4269-B9CF-EFD3A37CC255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31200" yWindow="2400" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table1" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="64">
   <si>
     <t>年月日（和暦）</t>
     <rPh sb="0" eb="1">
@@ -62,27 +62,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>近衛稙家消息</t>
-  </si>
-  <si>
-    <t>近衛稙家消息</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>近衛前久消息</t>
-  </si>
-  <si>
-    <t>近衛前久消息</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>近衛信尹消息</t>
-  </si>
-  <si>
-    <t>近衛信尹消息</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>表1　分析対象の陽明文庫所蔵史料</t>
     <rPh sb="0" eb="1">
       <t>ヒョウ</t>
@@ -407,12 +386,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>近衛稙家消息案</t>
-  </si>
-  <si>
-    <t>近衛信尹消息断簡</t>
-  </si>
-  <si>
     <t>正月6日</t>
     <rPh sb="0" eb="2">
       <t>11</t>
@@ -423,9 +396,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>近衛信尹消息案</t>
-  </si>
-  <si>
     <t>箱預り証状案</t>
   </si>
   <si>
@@ -488,9 +458,6 @@
     <t>（一般文書目録外）</t>
   </si>
   <si>
-    <t>寛文五年 應圓満院御記</t>
-  </si>
-  <si>
     <t>寛文5（1665）年</t>
     <rPh sb="0" eb="2">
       <t>カンブン</t>
@@ -586,8 +553,26 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>近衛稙家消息</t>
+    <t>寛文五年 応円満院御記</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>近衛稙家書状</t>
+  </si>
+  <si>
+    <t>近衛稙家書状案</t>
+  </si>
+  <si>
+    <t>近衛前久書状</t>
+  </si>
+  <si>
+    <t>近衛信尹書状</t>
+  </si>
+  <si>
+    <t>近衛信尹書状断簡</t>
+  </si>
+  <si>
+    <t>近衛信尹書状案</t>
   </si>
 </sst>
 </file>
@@ -1039,10 +1024,10 @@
   <dimension ref="A1:J115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C93" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P42" sqref="P42"/>
+      <selection pane="bottomRight" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5546875" defaultRowHeight="16.2" x14ac:dyDescent="0.25"/>
@@ -1061,7 +1046,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -1073,10 +1058,10 @@
     </row>
     <row r="2" spans="1:10" s="5" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -1085,19 +1070,19 @@
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>2</v>
@@ -1108,7 +1093,7 @@
         <v>391</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C3" s="6">
         <v>44030</v>
@@ -1126,7 +1111,7 @@
         <v>2612.4</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I3" s="10">
         <v>149</v>
@@ -1141,7 +1126,7 @@
         <v>392</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C4" s="6">
         <v>44030</v>
@@ -1159,7 +1144,7 @@
         <v>2650.16</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I4" s="10">
         <v>62</v>
@@ -1174,7 +1159,7 @@
         <v>393</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C5" s="6">
         <v>44040</v>
@@ -1192,7 +1177,7 @@
         <v>2014.53</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I5" s="10">
         <v>125</v>
@@ -1207,10 +1192,10 @@
         <v>394</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>1</v>
@@ -1225,7 +1210,7 @@
         <v>1991.25</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I6" s="10">
         <v>84</v>
@@ -1240,10 +1225,10 @@
         <v>396</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>1</v>
@@ -1258,7 +1243,7 @@
         <v>2020.0699999999997</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I7" s="10">
         <v>109</v>
@@ -1273,10 +1258,10 @@
         <v>397</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>1</v>
@@ -1291,7 +1276,7 @@
         <v>2141.1</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I8" s="10">
         <v>60</v>
@@ -1306,10 +1291,10 @@
         <v>398</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>1</v>
@@ -1324,7 +1309,7 @@
         <v>2036.25</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I9" s="10">
         <v>91</v>
@@ -1339,10 +1324,10 @@
         <v>399</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>17</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>23</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>1</v>
@@ -1357,7 +1342,7 @@
         <v>1944.04</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I10" s="10">
         <v>58</v>
@@ -1372,10 +1357,10 @@
         <v>400</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>1</v>
@@ -1390,7 +1375,7 @@
         <v>2055.8000000000002</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I11" s="10">
         <v>180</v>
@@ -1405,10 +1390,10 @@
         <v>401</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>1</v>
@@ -1423,7 +1408,7 @@
         <v>2115.84</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I12" s="10">
         <v>24</v>
@@ -1438,10 +1423,10 @@
         <v>402</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>1</v>
@@ -1456,7 +1441,7 @@
         <v>1861.5</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I13" s="10">
         <v>61</v>
@@ -1471,10 +1456,10 @@
         <v>403</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>1</v>
@@ -1489,7 +1474,7 @@
         <v>2061.7599999999998</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I14" s="10">
         <v>25</v>
@@ -1504,7 +1489,7 @@
         <v>405</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C15" s="6">
         <v>43972</v>
@@ -1522,7 +1507,7 @@
         <v>1600.2400000000002</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I15" s="10">
         <v>38</v>
@@ -1537,7 +1522,7 @@
         <v>406</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C16" s="6">
         <v>43886</v>
@@ -1555,7 +1540,7 @@
         <v>2044.9799999999998</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I16" s="10">
         <v>99</v>
@@ -1570,10 +1555,10 @@
         <v>407</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>1</v>
@@ -1588,7 +1573,7 @@
         <v>2115.7800000000002</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I17" s="10">
         <v>58</v>
@@ -1603,13 +1588,13 @@
         <v>408</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E18" s="9">
         <v>37.5</v>
@@ -1621,7 +1606,7 @@
         <v>1980</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I18" s="10">
         <v>93</v>
@@ -1636,10 +1621,10 @@
         <v>409</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>1</v>
@@ -1654,7 +1639,7 @@
         <v>2115.7800000000002</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I19" s="10">
         <v>65</v>
@@ -1669,10 +1654,10 @@
         <v>410</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>1</v>
@@ -1687,7 +1672,7 @@
         <v>2097.6</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I20" s="10">
         <v>65</v>
@@ -1702,7 +1687,7 @@
         <v>411</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C21" s="6">
         <v>44032</v>
@@ -1720,7 +1705,7 @@
         <v>2068.83</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I21" s="10">
         <v>99</v>
@@ -1735,10 +1720,10 @@
         <v>412</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>1</v>
@@ -1753,7 +1738,7 @@
         <v>2038.3500000000001</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I22" s="10">
         <v>48</v>
@@ -1768,10 +1753,10 @@
         <v>413</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>1</v>
@@ -1786,7 +1771,7 @@
         <v>2075.52</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I23" s="10">
         <v>46</v>
@@ -1801,10 +1786,10 @@
         <v>414</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>1</v>
@@ -1819,7 +1804,7 @@
         <v>2097.5400000000004</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I24" s="10">
         <v>33</v>
@@ -1834,10 +1819,10 @@
         <v>415</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>1</v>
@@ -1852,7 +1837,7 @@
         <v>2063.4</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I25" s="10">
         <v>86</v>
@@ -1867,7 +1852,7 @@
         <v>416</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="7" t="s">
@@ -1883,7 +1868,7 @@
         <v>2071.4399999999996</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I26" s="10">
         <v>78</v>
@@ -1898,7 +1883,7 @@
         <v>417</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C27" s="6">
         <v>44036</v>
@@ -1916,7 +1901,7 @@
         <v>2059.6</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I27" s="10">
         <v>89</v>
@@ -1931,10 +1916,10 @@
         <v>418</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>1</v>
@@ -1949,7 +1934,7 @@
         <v>2145.0299999999997</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I28" s="10">
         <v>138</v>
@@ -1964,7 +1949,7 @@
         <v>419</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="7" t="s">
@@ -1980,7 +1965,7 @@
         <v>1844.71</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I29" s="10">
         <v>58</v>
@@ -1995,7 +1980,7 @@
         <v>37551</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C30" s="6">
         <v>43871</v>
@@ -2013,7 +1998,7 @@
         <v>1879.75</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I30" s="10">
         <v>85</v>
@@ -2028,7 +2013,7 @@
         <v>37552</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C31" s="6">
         <v>43871</v>
@@ -2046,7 +2031,7 @@
         <v>1851.2</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I31" s="10">
         <v>71</v>
@@ -2061,7 +2046,7 @@
         <v>37553</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="7" t="s">
@@ -2077,7 +2062,7 @@
         <v>1856.4</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I32" s="10">
         <v>67</v>
@@ -2092,10 +2077,10 @@
         <v>37554</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>1</v>
@@ -2110,7 +2095,7 @@
         <v>2056.7200000000003</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I33" s="10">
         <v>97</v>
@@ -2125,10 +2110,10 @@
         <v>37555</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>1</v>
@@ -2143,7 +2128,7 @@
         <v>2073.13</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I34" s="10">
         <v>74</v>
@@ -2158,13 +2143,13 @@
         <v>3148</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="C35" s="6">
         <v>44017</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E35" s="9">
         <v>18.600000000000001</v>
@@ -2176,7 +2161,7 @@
         <v>892.80000000000007</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I35" s="10">
         <v>116</v>
@@ -2191,13 +2176,13 @@
         <v>3150</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="C36" s="6">
         <v>44017</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E36" s="9">
         <v>18.7</v>
@@ -2209,7 +2194,7 @@
         <v>903.20999999999992</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I36" s="10">
         <v>82</v>
@@ -2224,11 +2209,11 @@
         <v>3156</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E37" s="9">
         <v>48.5</v>
@@ -2240,7 +2225,7 @@
         <v>921.5</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I37" s="10">
         <v>72</v>
@@ -2255,11 +2240,11 @@
         <v>3157</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E38" s="9">
         <v>48.2</v>
@@ -2271,7 +2256,7 @@
         <v>882.06</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I38" s="10">
         <v>55</v>
@@ -2286,11 +2271,11 @@
         <v>3158</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E39" s="9">
         <v>48</v>
@@ -2302,7 +2287,7 @@
         <v>912</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I39" s="10">
         <v>76</v>
@@ -2317,11 +2302,11 @@
         <v>3159</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E40" s="9">
         <v>48.4</v>
@@ -2333,7 +2318,7 @@
         <v>900.24</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I40" s="10">
         <v>76</v>
@@ -2348,11 +2333,11 @@
         <v>3160</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E41" s="9">
         <v>47.3</v>
@@ -2364,7 +2349,7 @@
         <v>898.7</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I41" s="10">
         <v>50</v>
@@ -2379,11 +2364,11 @@
         <v>3161</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E42" s="9">
         <v>48.3</v>
@@ -2395,7 +2380,7 @@
         <v>483</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I42" s="10">
         <v>88</v>
@@ -2410,11 +2395,11 @@
         <v>3162</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E43" s="9">
         <v>48.1</v>
@@ -2426,7 +2411,7 @@
         <v>904.28</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I43" s="10">
         <v>109</v>
@@ -2441,11 +2426,11 @@
         <v>3163</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E44" s="9">
         <v>48.1</v>
@@ -2457,7 +2442,7 @@
         <v>923.52</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I44" s="10">
         <v>89</v>
@@ -2472,11 +2457,11 @@
         <v>3164</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E45" s="9">
         <v>48.3</v>
@@ -2488,7 +2473,7 @@
         <v>908.04</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I45" s="10">
         <v>77</v>
@@ -2503,11 +2488,11 @@
         <v>3165</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E46" s="9">
         <v>47.8</v>
@@ -2519,7 +2504,7 @@
         <v>898.64</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I46" s="10">
         <v>122</v>
@@ -2534,11 +2519,11 @@
         <v>3166</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E47" s="9">
         <v>48</v>
@@ -2550,7 +2535,7 @@
         <v>902.4</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I47" s="10">
         <v>133</v>
@@ -2565,11 +2550,11 @@
         <v>3167</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E48" s="9">
         <v>48</v>
@@ -2581,7 +2566,7 @@
         <v>868.8</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I48" s="10">
         <v>98</v>
@@ -2596,7 +2581,7 @@
         <v>3168</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7" t="s">
@@ -2612,7 +2597,7 @@
         <v>899.47</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I49" s="10">
         <v>193</v>
@@ -2627,7 +2612,7 @@
         <v>3169</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7" t="s">
@@ -2643,7 +2628,7 @@
         <v>908.04</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I50" s="10">
         <v>103</v>
@@ -2658,7 +2643,7 @@
         <v>3170</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7" t="s">
@@ -2674,7 +2659,7 @@
         <v>896.52</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I51" s="10">
         <v>148</v>
@@ -2689,7 +2674,7 @@
         <v>3171</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7" t="s">
@@ -2705,7 +2690,7 @@
         <v>892.8</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I52" s="10">
         <v>164</v>
@@ -2720,7 +2705,7 @@
         <v>3172</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7" t="s">
@@ -2736,7 +2721,7 @@
         <v>908.04</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I53" s="10">
         <v>88</v>
@@ -2751,7 +2736,7 @@
         <v>3173</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7" t="s">
@@ -2767,7 +2752,7 @@
         <v>903.21</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I54" s="10">
         <v>138</v>
@@ -2782,7 +2767,7 @@
         <v>3174</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7" t="s">
@@ -2798,7 +2783,7 @@
         <v>892.8</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I55" s="10">
         <v>137</v>
@@ -2813,7 +2798,7 @@
         <v>3175</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7" t="s">
@@ -2829,7 +2814,7 @@
         <v>883.89</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I56" s="10">
         <v>66</v>
@@ -2844,7 +2829,7 @@
         <v>3176</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7" t="s">
@@ -2860,7 +2845,7 @@
         <v>890.94</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I57" s="10">
         <v>99</v>
@@ -2875,7 +2860,7 @@
         <v>2351</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C58" s="12"/>
       <c r="D58" s="7" t="s">
@@ -2891,7 +2876,7 @@
         <v>2009.28</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I58" s="10">
         <v>38</v>
@@ -2906,7 +2891,7 @@
         <v>2352</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="C59" s="12"/>
       <c r="D59" s="7" t="s">
@@ -2922,7 +2907,7 @@
         <v>2011.05</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I59" s="10">
         <v>46</v>
@@ -2937,7 +2922,7 @@
         <v>38720</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="C60" s="12"/>
       <c r="D60" s="7" t="s">
@@ -2953,7 +2938,7 @@
         <v>1561.38</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I60" s="10">
         <v>38</v>
@@ -2968,7 +2953,7 @@
         <v>38721</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="C61" s="12"/>
       <c r="D61" s="7" t="s">
@@ -2984,7 +2969,7 @@
         <v>1328.88</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I61" s="10">
         <v>158</v>
@@ -2999,7 +2984,7 @@
         <v>38722</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="C62" s="12"/>
       <c r="D62" s="7" t="s">
@@ -3015,7 +3000,7 @@
         <v>1611.42</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I62" s="10">
         <v>25</v>
@@ -3030,7 +3015,7 @@
         <v>38723</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="C63" s="12"/>
       <c r="D63" s="7" t="s">
@@ -3046,7 +3031,7 @@
         <v>1363.64</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I63" s="10">
         <v>67</v>
@@ -3061,10 +3046,10 @@
         <v>38724</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>1</v>
@@ -3079,7 +3064,7 @@
         <v>1943.9400000000003</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I64" s="10">
         <v>57</v>
@@ -3094,10 +3079,10 @@
         <v>38725</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>1</v>
@@ -3112,7 +3097,7 @@
         <v>1987.44</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I65" s="10">
         <v>53</v>
@@ -3127,7 +3112,7 @@
         <v>38726</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="C66" s="12"/>
       <c r="D66" s="7" t="s">
@@ -3143,7 +3128,7 @@
         <v>1952.9399999999998</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I66" s="10">
         <v>60</v>
@@ -3158,10 +3143,10 @@
         <v>38727</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>1</v>
@@ -3176,7 +3161,7 @@
         <v>1492.8000000000002</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I67" s="10">
         <v>35</v>
@@ -3191,7 +3176,7 @@
         <v>38728</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="C68" s="12"/>
       <c r="D68" s="7" t="s">
@@ -3207,7 +3192,7 @@
         <v>1361.8600000000001</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I68" s="10">
         <v>35</v>
@@ -3222,7 +3207,7 @@
         <v>38729</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="C69" s="12"/>
       <c r="D69" s="7" t="s">
@@ -3238,7 +3223,7 @@
         <v>1380.6</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I69" s="10">
         <v>36</v>
@@ -3253,7 +3238,7 @@
         <v>38730</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="C70" s="12"/>
       <c r="D70" s="7" t="s">
@@ -3269,7 +3254,7 @@
         <v>1349.7600000000002</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I70" s="10">
         <v>36</v>
@@ -3284,7 +3269,7 @@
         <v>38731</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="C71" s="12"/>
       <c r="D71" s="7" t="s">
@@ -3300,7 +3285,7 @@
         <v>1405.3</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I71" s="10">
         <v>39</v>
@@ -3315,7 +3300,7 @@
         <v>38732</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="C72" s="12"/>
       <c r="D72" s="7" t="s">
@@ -3331,7 +3316,7 @@
         <v>1413</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I72" s="10">
         <v>40</v>
@@ -3346,10 +3331,10 @@
         <v>78733</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>1</v>
@@ -3364,7 +3349,7 @@
         <v>1717.0399999999997</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I73" s="10">
         <v>35</v>
@@ -3379,10 +3364,10 @@
         <v>38734</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>1</v>
@@ -3397,7 +3382,7 @@
         <v>1360.47</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I74" s="10">
         <v>30</v>
@@ -3412,7 +3397,7 @@
         <v>38735</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="C75" s="12"/>
       <c r="D75" s="7" t="s">
@@ -3428,7 +3413,7 @@
         <v>1404.81</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I75" s="10">
         <v>23</v>
@@ -3443,7 +3428,7 @@
         <v>38736</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="C76" s="12"/>
       <c r="D76" s="7" t="s">
@@ -3459,7 +3444,7 @@
         <v>1611.7699999999998</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I76" s="10">
         <v>36</v>
@@ -3474,7 +3459,7 @@
         <v>38737</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="C77" s="12"/>
       <c r="D77" s="7" t="s">
@@ -3490,7 +3475,7 @@
         <v>1389.0800000000002</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I77" s="10">
         <v>65</v>
@@ -3505,7 +3490,7 @@
         <v>38738</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="C78" s="12"/>
       <c r="D78" s="7" t="s">
@@ -3521,7 +3506,7 @@
         <v>1421.4099999999999</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I78" s="10">
         <v>51</v>
@@ -3536,7 +3521,7 @@
         <v>2363</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7" t="s">
@@ -3552,7 +3537,7 @@
         <v>1352.5200000000002</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I79" s="10">
         <v>121</v>
@@ -3567,7 +3552,7 @@
         <v>2365</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7" t="s">
@@ -3583,7 +3568,7 @@
         <v>973.5</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I80" s="10">
         <v>200</v>
@@ -3598,7 +3583,7 @@
         <v>2366</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7" t="s">
@@ -3614,7 +3599,7 @@
         <v>1036.07</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I81" s="10">
         <v>94</v>
@@ -3629,7 +3614,7 @@
         <v>2367</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7" t="s">
@@ -3645,7 +3630,7 @@
         <v>983.84</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I82" s="10">
         <v>68</v>
@@ -3660,7 +3645,7 @@
         <v>2368</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7" t="s">
@@ -3676,7 +3661,7 @@
         <v>948</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I83" s="10">
         <v>92</v>
@@ -3691,7 +3676,7 @@
         <v>2369</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7" t="s">
@@ -3707,7 +3692,7 @@
         <v>1052.5999999999999</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I84" s="10">
         <v>117</v>
@@ -3722,7 +3707,7 @@
         <v>2370</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7" t="s">
@@ -3738,7 +3723,7 @@
         <v>560.70000000000005</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I85" s="10">
         <v>65</v>
@@ -3753,7 +3738,7 @@
         <v>2371</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7" t="s">
@@ -3769,7 +3754,7 @@
         <v>862.64</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I86" s="10">
         <v>72</v>
@@ -3784,7 +3769,7 @@
         <v>2372</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7" t="s">
@@ -3800,7 +3785,7 @@
         <v>749.5100000000001</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I87" s="10">
         <v>144</v>
@@ -3815,7 +3800,7 @@
         <v>2373</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7" t="s">
@@ -3831,7 +3816,7 @@
         <v>810.02</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I88" s="10">
         <v>92</v>
@@ -3846,7 +3831,7 @@
         <v>2374</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7" t="s">
@@ -3862,7 +3847,7 @@
         <v>1392.22</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I89" s="10">
         <v>60</v>
@@ -3877,7 +3862,7 @@
         <v>2375</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7" t="s">
@@ -3893,7 +3878,7 @@
         <v>930.58</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I90" s="10">
         <v>110</v>
@@ -3908,7 +3893,7 @@
         <v>2376</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="C91" s="6">
         <v>44021</v>
@@ -3926,7 +3911,7 @@
         <v>1142.68</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I91" s="10">
         <v>106</v>
@@ -3941,7 +3926,7 @@
         <v>2377</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="C92" s="6">
         <v>43958</v>
@@ -3959,7 +3944,7 @@
         <v>1101.4299999999998</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I92" s="10">
         <v>78</v>
@@ -3974,7 +3959,7 @@
         <v>2378</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7" t="s">
@@ -3990,7 +3975,7 @@
         <v>1046.46</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I93" s="10">
         <v>118</v>
@@ -4005,7 +3990,7 @@
         <v>2379</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="7" t="s">
@@ -4021,7 +4006,7 @@
         <v>1230.0400000000002</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I94" s="10">
         <v>99</v>
@@ -4036,10 +4021,10 @@
         <v>2380</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D95" s="7" t="s">
         <v>1</v>
@@ -4054,7 +4039,7 @@
         <v>1472.5600000000002</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I95" s="10">
         <v>262</v>
@@ -4069,7 +4054,7 @@
         <v>2381</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="C96" s="12"/>
       <c r="D96" s="7" t="s">
@@ -4085,7 +4070,7 @@
         <v>1577.8000000000002</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I96" s="10">
         <v>86</v>
@@ -4100,7 +4085,7 @@
         <v>2382</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="C97" s="12"/>
       <c r="D97" s="7" t="s">
@@ -4116,7 +4101,7 @@
         <v>819.97</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I97" s="10">
         <v>64</v>
@@ -4131,7 +4116,7 @@
         <v>2383</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="C98" s="12"/>
       <c r="D98" s="7" t="s">
@@ -4147,7 +4132,7 @@
         <v>663.39</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I98" s="10">
         <v>130</v>
@@ -4162,7 +4147,7 @@
         <v>2384</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="C99" s="6">
         <v>43881</v>
@@ -4180,7 +4165,7 @@
         <v>1343.1599999999999</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I99" s="10">
         <v>121</v>
@@ -4195,7 +4180,7 @@
         <v>2385</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="7" t="s">
@@ -4211,7 +4196,7 @@
         <v>1340.29</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I100" s="10">
         <v>83</v>
@@ -4226,7 +4211,7 @@
         <v>2386</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="C101" s="6">
         <v>43881</v>
@@ -4244,7 +4229,7 @@
         <v>1343.1599999999999</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I101" s="10">
         <v>121</v>
@@ -4259,7 +4244,7 @@
         <v>2387</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="C102" s="12"/>
       <c r="D102" s="7" t="s">
@@ -4275,7 +4260,7 @@
         <v>1340.29</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I102" s="10">
         <v>83</v>
@@ -4290,7 +4275,7 @@
         <v>2388</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C103" s="12"/>
       <c r="D103" s="7" t="s">
@@ -4306,7 +4291,7 @@
         <v>597.05999999999995</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I103" s="10">
         <v>61</v>
@@ -4321,7 +4306,7 @@
         <v>2389</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C104" s="12"/>
       <c r="D104" s="7" t="s">
@@ -4337,7 +4322,7 @@
         <v>861.40000000000009</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I104" s="10">
         <v>170</v>
@@ -4352,10 +4337,10 @@
         <v>2390</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D105" s="7" t="s">
         <v>1</v>
@@ -4370,7 +4355,7 @@
         <v>709.56</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I105" s="10">
         <v>62</v>
@@ -4385,10 +4370,10 @@
         <v>2392</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D106" s="7" t="s">
         <v>1</v>
@@ -4403,7 +4388,7 @@
         <v>501.03000000000003</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I106" s="10">
         <v>119</v>
@@ -4418,7 +4403,7 @@
         <v>2393</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C107" s="12"/>
       <c r="D107" s="7" t="s">
@@ -4434,7 +4419,7 @@
         <v>1216.3799999999999</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I107" s="10">
         <v>246</v>
@@ -4449,7 +4434,7 @@
         <v>2394</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C108" s="12"/>
       <c r="D108" s="7" t="s">
@@ -4465,7 +4450,7 @@
         <v>546.20999999999992</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I108" s="10">
         <v>48</v>
@@ -4480,11 +4465,11 @@
         <v>2396</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C109" s="12"/>
       <c r="D109" s="7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E109" s="9">
         <v>11.5</v>
@@ -4496,7 +4481,7 @@
         <v>296.7</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I109" s="10">
         <v>127</v>
@@ -4511,7 +4496,7 @@
         <v>2397</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C110" s="12"/>
       <c r="D110" s="7" t="s">
@@ -4527,7 +4512,7 @@
         <v>646.79999999999995</v>
       </c>
       <c r="H110" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I110" s="10">
         <v>119</v>
@@ -4542,7 +4527,7 @@
         <v>2398</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C111" s="12"/>
       <c r="D111" s="7" t="s">
@@ -4558,7 +4543,7 @@
         <v>670.98</v>
       </c>
       <c r="H111" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I111" s="10">
         <v>84</v>
@@ -4573,7 +4558,7 @@
         <v>2399</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C112" s="12"/>
       <c r="D112" s="7" t="s">
@@ -4589,7 +4574,7 @@
         <v>984.54</v>
       </c>
       <c r="H112" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I112" s="10">
         <v>118</v>
@@ -4604,7 +4589,7 @@
         <v>2400</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C113" s="12"/>
       <c r="D113" s="7" t="s">
@@ -4620,7 +4605,7 @@
         <v>788.31000000000006</v>
       </c>
       <c r="H113" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I113" s="10">
         <v>68</v>
@@ -4632,13 +4617,13 @@
     </row>
     <row r="114" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="C114" s="12" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D114" s="7" t="s">
         <v>1</v>
@@ -4653,7 +4638,7 @@
         <v>1357.5199999999998</v>
       </c>
       <c r="H114" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I114" s="10">
         <v>28</v>
@@ -4665,7 +4650,7 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="14" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B115" s="14"/>
       <c r="C115" s="14"/>
